--- a/data/trans_camb/IP43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP43-Estudios-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 3,87</t>
+          <t>-14,35; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,01; -11,12</t>
+          <t>-24,0; -10,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 6,94</t>
+          <t>-14,65; 7,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,26; -17,08</t>
+          <t>-30,25; -16,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 2,14</t>
+          <t>-12,35; 1,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -15,54</t>
+          <t>-24,97; -15,3</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,24; 35,45</t>
+          <t>-68,27; 33,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 40,28</t>
+          <t>-54,77; 38,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,44; 13,0</t>
+          <t>-52,62; 11,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -9,49</t>
+          <t>-17,55; -9,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,95; -22,58</t>
+          <t>-29,12; -22,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -6,93</t>
+          <t>-15,25; -7,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -20,47</t>
+          <t>-27,06; -20,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -9,29</t>
+          <t>-14,85; -9,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -22,28</t>
+          <t>-26,94; -22,49</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,99; -39,96</t>
+          <t>-63,21; -39,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,57; -32,42</t>
+          <t>-57,8; -32,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,74; -40,96</t>
+          <t>-57,0; -40,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -5,43</t>
+          <t>-16,31; -4,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,97; -15,55</t>
+          <t>-26,25; -16,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -5,58</t>
+          <t>-17,39; -5,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,75; -15,47</t>
+          <t>-25,67; -15,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -6,82</t>
+          <t>-15,28; -6,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -16,96</t>
+          <t>-24,42; -16,88</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,57; -30,61</t>
+          <t>-70,14; -26,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,43; -31,6</t>
+          <t>-72,22; -31,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,83; -38,39</t>
+          <t>-66,49; -36,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,12; -8,63</t>
+          <t>-15,03; -8,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -20,9</t>
+          <t>-26,05; -20,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -7,39</t>
+          <t>-14,07; -7,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -20,28</t>
+          <t>-25,47; -20,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -9,06</t>
+          <t>-13,54; -9,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -21,36</t>
+          <t>-24,99; -21,35</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,72; -40,48</t>
+          <t>-59,34; -38,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,53; -34,9</t>
+          <t>-55,76; -34,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,61; -41,4</t>
+          <t>-55,21; -40,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">

--- a/data/trans_camb/IP43-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP43-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-22,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-16,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,89</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,66; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,22; -16,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 3,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,7; -10,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 1,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,93; -15,63</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -715,27 +715,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-54,43; 40,52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-70,69; 28,17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 9,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,53</t>
+          <t>-23,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-13,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,99</t>
+          <t>-25,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,89</t>
+          <t>-24,69</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 3,5</t>
+          <t>-15,02; -6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,0; -10,79</t>
+          <t>-27,21; -20,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 7,07</t>
+          <t>-17,66; -9,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -16,71</t>
+          <t>-28,66; -22,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 1,77</t>
+          <t>-15,01; -9,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -15,3</t>
+          <t>-26,85; -22,47</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,14%</t>
+          <t>-46,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>-52,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-49,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 33,4</t>
+          <t>-57,88; -33,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 38,95</t>
+          <t>-63,31; -40,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,62; 11,84</t>
+          <t>-56,68; -40,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,32</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,54</t>
+          <t>-20,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,75</t>
+          <t>-20,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-24,69</t>
+          <t>-20,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -9,17</t>
+          <t>-18,15; -5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,12; -22,46</t>
+          <t>-25,52; -15,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -7,1</t>
+          <t>-17,3; -5,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -20,87</t>
+          <t>-26,09; -15,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -9,37</t>
+          <t>-15,26; -6,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -22,49</t>
+          <t>-24,15; -16,91</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-52,13%</t>
+          <t>-55,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,49%</t>
+          <t>-53,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,52%</t>
+          <t>-54,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,21; -39,52</t>
+          <t>-74,74; -31,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,8; -32,03</t>
+          <t>-69,33; -27,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,0; -40,56</t>
+          <t>-67,3; -37,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-20,56</t>
+          <t>-22,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>-23,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,36</t>
+          <t>-23,11</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -4,45</t>
+          <t>-13,53; -7,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,25; -16,04</t>
+          <t>-25,73; -20,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -5,33</t>
+          <t>-14,96; -8,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -15,73</t>
+          <t>-25,97; -20,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -6,69</t>
+          <t>-13,57; -8,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -16,88</t>
+          <t>-25,17; -21,32</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-53,02%</t>
+          <t>-45,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,48%</t>
+          <t>-51,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-54,17%</t>
+          <t>-48,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,14; -26,95</t>
+          <t>-55,03; -34,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,22; -31,64</t>
+          <t>-59,63; -40,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,49; -36,12</t>
+          <t>-55,03; -40,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1213,177 +1213,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-11,91</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-23,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,48</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-22,81</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-11,22</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-23,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-15,03; -8,54</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-26,05; -20,83</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-14,07; -7,42</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-25,47; -20,3</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; -9,05</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-24,99; -21,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-50,97%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-45,96%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-48,57%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-59,34; -38,42</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-55,76; -34,48</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-55,21; -40,78</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
